--- a/data/trans_camb/P20B-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P20B-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>-7.33547745123163</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>-4.594968386632218</v>
+        <v>-4.59496838663222</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>3.317147118558656</v>
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-30.74589737627298</v>
+        <v>-29.52104934035108</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-21.50444561225133</v>
+        <v>-20.55895710163312</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-12.44227183166949</v>
+        <v>-14.80530925485043</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-15.04853589056996</v>
+        <v>-11.74140745427214</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-29.41812125457862</v>
+        <v>-27.77652777947291</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-24.80947710287575</v>
+        <v>-25.49307385828399</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-14.44637762274996</v>
+        <v>-15.8135906539724</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-21.07387143072736</v>
+        <v>-20.68486093954821</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-15.76386707157377</v>
+        <v>-15.58817617381779</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>29.82451399365663</v>
+        <v>27.88522017693069</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>32.47172690978268</v>
+        <v>33.50755707024584</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>36.0919807136436</v>
+        <v>37.81780773311048</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>32.04220578989798</v>
+        <v>34.64993686536873</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>8.328086125954369</v>
+        <v>9.100142858726237</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>10.26218289654869</v>
+        <v>10.81187831177046</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>22.26441310017299</v>
+        <v>22.16484183773573</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>12.24619318750508</v>
+        <v>14.03113081642386</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>18.47755979134888</v>
+        <v>18.88820804083376</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>-0.4893155062012318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>-0.3065089214753288</v>
+        <v>-0.306508921475329</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1393681584868706</v>
@@ -780,29 +780,29 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.7186570674438634</v>
+        <v>-0.7396863653353145</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.5062947044761629</v>
+        <v>-0.4892902180723201</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.3066581782953831</v>
+        <v>-0.3678067230238733</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.6473889978227272</v>
+        <v>-0.559050058585484</v>
       </c>
       <c r="G8" s="6" t="inlineStr"/>
       <c r="H8" s="6" t="n">
-        <v>-0.8489696947886728</v>
+        <v>-0.8404611624435129</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.4672526006760479</v>
+        <v>-0.4735483147073684</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.6378428555413075</v>
+        <v>-0.6131216566924844</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-0.4369893182994632</v>
+        <v>-0.4642673127390541</v>
       </c>
     </row>
     <row r="9">
@@ -813,29 +813,27 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>2.017986496453585</v>
+        <v>1.662707193889721</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>2.524431836935064</v>
+        <v>2.175287983977821</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>2.338089024845401</v>
+        <v>2.521708135177889</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>6.046822714819073</v>
+        <v>7.430981153800126</v>
       </c>
       <c r="G9" s="6" t="inlineStr"/>
-      <c r="H9" s="6" t="n">
-        <v>2.441797091579855</v>
-      </c>
+      <c r="H9" s="6" t="inlineStr"/>
       <c r="I9" s="6" t="n">
-        <v>1.674954995500173</v>
+        <v>1.658700960339904</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9607042670612178</v>
+        <v>0.9227116817705288</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.329794640028588</v>
+        <v>1.395184691698752</v>
       </c>
     </row>
     <row r="10">
@@ -885,31 +883,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-34.62810775164544</v>
+        <v>-35.03859046956123</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-26.36880808864683</v>
+        <v>-28.41663102067815</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-13.886543609724</v>
+        <v>-15.4806656097749</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-16.94985758575035</v>
+        <v>-17.6001469111012</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-7.910465473549817</v>
+        <v>-9.254569998061344</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-3.061704057348249</v>
+        <v>-4.494166513909222</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-17.89865065617396</v>
+        <v>-16.21996120629736</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-8.143101747884202</v>
+        <v>-8.428816647619239</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3957692389293016</v>
+        <v>-0.3085341614871331</v>
       </c>
     </row>
     <row r="12">
@@ -920,31 +918,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>14.92385598537579</v>
+        <v>12.75915228728907</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>25.05525436648062</v>
+        <v>24.53293178218097</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41.01943043550283</v>
+        <v>37.45269201655665</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>18.12777107606583</v>
+        <v>16.35543396661211</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>33.952234630877</v>
+        <v>32.38148038561251</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>34.16905589872592</v>
+        <v>33.96014674330793</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>10.87922275562811</v>
+        <v>11.53883959853162</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>25.06346652470781</v>
+        <v>23.29168509590287</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>29.86978342761424</v>
+        <v>30.44946377933588</v>
       </c>
     </row>
     <row r="13">
@@ -979,7 +977,7 @@
         <v>0.4924822427803972</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>1.008399258795462</v>
+        <v>1.008399258795463</v>
       </c>
     </row>
     <row r="14">
@@ -992,25 +990,25 @@
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="inlineStr"/>
       <c r="E14" s="6" t="n">
-        <v>-0.4907265808191674</v>
+        <v>-0.5288267323730913</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.8011521745725544</v>
+        <v>-0.8339749834167741</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.4486908958893122</v>
+        <v>-0.6046627579311495</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2260729579541886</v>
+        <v>-0.2806779969619586</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.7480772977983988</v>
+        <v>-0.7681666783756277</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4089013026300165</v>
+        <v>-0.4160564204414853</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.07370299592887608</v>
+        <v>-0.07468625628479084</v>
       </c>
     </row>
     <row r="15">
@@ -1023,25 +1021,25 @@
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>9.152926761243922</v>
+        <v>6.58601104701634</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.312571622646568</v>
+        <v>4.94551322488195</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.756125590304917</v>
+        <v>6.326402881262966</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>8.477564963282983</v>
+        <v>6.899226774668537</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.728624638641375</v>
+        <v>1.562097144384353</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.749283065462721</v>
+        <v>3.254943629229208</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>3.701971933286142</v>
+        <v>3.916462175684015</v>
       </c>
     </row>
     <row r="16">
@@ -1062,7 +1060,7 @@
         <v>-3.767872860412347</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9.977555524918092</v>
+        <v>9.977555524918074</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>10.69195592126061</v>
@@ -1091,31 +1089,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-33.18998131831479</v>
+        <v>-29.66577555418073</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-32.10302442708804</v>
+        <v>-35.12474785343264</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-18.43118403280442</v>
+        <v>-13.74354613577257</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-15.60450134621784</v>
+        <v>-18.72494020715212</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-5.294148826357405</v>
+        <v>-5.196058242702114</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-17.90159031018557</v>
+        <v>-21.31081202354373</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-16.11254951329274</v>
+        <v>-17.93578273592736</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-11.70360635559193</v>
+        <v>-13.0457443257519</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-5.879036284302435</v>
+        <v>-9.297039662596763</v>
       </c>
     </row>
     <row r="18">
@@ -1126,31 +1124,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>18.48501223113182</v>
+        <v>16.57089368291757</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>20.56632680153471</v>
+        <v>21.7721131356592</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>37.02722985377948</v>
+        <v>36.87923586489458</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>34.21506954454992</v>
+        <v>36.13702641968661</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>59.96751593367002</v>
+        <v>57.79113156942132</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>33.79140339359984</v>
+        <v>33.36058449538256</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>18.73155658798571</v>
+        <v>20.26450267590853</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>28.19050998090953</v>
+        <v>27.04885622609902</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>30.59710254002454</v>
+        <v>29.73131989366867</v>
       </c>
     </row>
     <row r="19">
@@ -1167,7 +1165,7 @@
         <v>-0.09958394453229893</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.2637043161410277</v>
+        <v>0.2637043161410273</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6310672562088961</v>
@@ -1196,31 +1194,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6003058260415574</v>
+        <v>-0.5780167810852221</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.600280920513008</v>
+        <v>-0.63191293342896</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.3343361363768034</v>
+        <v>-0.2720967006137904</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.6128209832161403</v>
+        <v>-0.6489930141973151</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.409303412846782</v>
+        <v>-0.2596228945492158</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.6761759861189029</v>
+        <v>-0.667965069746831</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.4061268906260094</v>
+        <v>-0.4583836684369549</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3224000892380415</v>
+        <v>-0.3472037767058684</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1613249615909362</v>
+        <v>-0.2230674921387808</v>
       </c>
     </row>
     <row r="21">
@@ -1231,31 +1229,29 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.9371734877688598</v>
+        <v>0.8519770079760384</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.013360632784889</v>
+        <v>1.072651772226842</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>1.729192795241737</v>
-      </c>
-      <c r="F21" s="6" t="n">
-        <v>7.240787009580545</v>
-      </c>
+        <v>1.73511233621555</v>
+      </c>
+      <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="n">
-        <v>11.27682563743924</v>
+        <v>11.25593558986917</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>7.025586721213227</v>
+        <v>6.149288803122292</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.077044944751515</v>
+        <v>1.146611312598676</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.487095496047341</v>
+        <v>1.428254487167116</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.856796798910147</v>
+        <v>1.686848461567901</v>
       </c>
     </row>
     <row r="22">
@@ -1276,7 +1272,7 @@
         <v>18.36565197589429</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1.386036905830712</v>
+        <v>1.386036905830709</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>-0.08939394183226368</v>
@@ -1285,7 +1281,7 @@
         <v>0.4543826808604351</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>-1.427591699470304</v>
+        <v>-1.427591699470307</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>4.473541332504066</v>
@@ -1305,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-4.922298385610108</v>
+        <v>-6.58671662962009</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.079422844582475</v>
+        <v>1.809823332611817</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-14.34560778406141</v>
+        <v>-14.16864056105019</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-13.14307737694051</v>
+        <v>-15.13007951617917</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-13.13641725552001</v>
+        <v>-12.30441505519346</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-14.46905386685446</v>
+        <v>-15.09866710289217</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-5.149780637031251</v>
+        <v>-5.068150803697369</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.755064000851527</v>
+        <v>-2.984759229992543</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>-8.923552342448639</v>
+        <v>-9.795582435040352</v>
       </c>
     </row>
     <row r="24">
@@ -1340,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>24.9844009290037</v>
+        <v>23.53096252787928</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>37.22393205095577</v>
+        <v>36.63538511457887</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>14.33039150014426</v>
+        <v>16.02314154860817</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.32906264792841</v>
+        <v>12.12351234977847</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>13.57099644201694</v>
+        <v>14.05068941220955</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>11.77124163391641</v>
+        <v>10.74854347415372</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>15.72451179273326</v>
+        <v>14.56627287740764</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>18.23961002555732</v>
+        <v>19.69131655658138</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>9.930021519072586</v>
+        <v>9.707818978663264</v>
       </c>
     </row>
     <row r="25">
@@ -1381,7 +1377,7 @@
         <v>0.8528696684672944</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.06436519857344801</v>
+        <v>0.06436519857344787</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>-0.004693476232148859</v>
@@ -1390,7 +1386,7 @@
         <v>0.02385658657854185</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>-0.07495326387160836</v>
+        <v>-0.07495326387160851</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.2211293960413135</v>
@@ -1410,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1908860813006814</v>
+        <v>-0.2187614028021763</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.05317757413357243</v>
+        <v>0.0405666481092038</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.4899480596113304</v>
+        <v>-0.488210394190773</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.5300119595489348</v>
+        <v>-0.5656839691668939</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.5241307407029107</v>
+        <v>-0.4848828917060466</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.573738640108559</v>
+        <v>-0.5756439111771313</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2221884078142101</v>
+        <v>-0.2003816672434795</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.1164698601602287</v>
+        <v>-0.1206714467832502</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>-0.3768760908225777</v>
+        <v>-0.4049798536972203</v>
       </c>
     </row>
     <row r="27">
@@ -1445,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>1.780402693008377</v>
+        <v>1.803275416919545</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>2.858199801330512</v>
+        <v>2.672258404970115</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>1.012312998689341</v>
+        <v>1.085640544164749</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.110202917594213</v>
+        <v>1.029436770294004</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>1.225713915222003</v>
+        <v>1.187632275879539</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.020883761215569</v>
+        <v>0.8972505077538314</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.08368528636152</v>
+        <v>0.9873049045581803</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>1.129049778067311</v>
+        <v>1.325669171861402</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.6570391048769966</v>
+        <v>0.6775735267725741</v>
       </c>
     </row>
     <row r="28">
@@ -1499,7 +1495,7 @@
         <v>18.52990701712804</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>11.5017864726899</v>
+        <v>11.50178647268991</v>
       </c>
       <c r="I28" s="5" t="n">
         <v>11.32527246389662</v>
@@ -1519,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-23.22347882189597</v>
+        <v>-22.4276822756895</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-27.18511053386097</v>
+        <v>-22.04276882398076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-29.69980443783456</v>
+        <v>-26.54228471508267</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-4.258891638247509</v>
+        <v>-1.809047029036827</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.737695481914904</v>
+        <v>-1.691274215159253</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-6.138858681262184</v>
+        <v>-7.460513378024553</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-2.553168125598144</v>
+        <v>-3.766138318722517</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-2.637930726088936</v>
+        <v>-0.8618286408502839</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>-5.016086194508851</v>
+        <v>-6.675517518498973</v>
       </c>
     </row>
     <row r="30">
@@ -1554,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>30.74143161187758</v>
+        <v>34.45308614460033</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>35.98533745930802</v>
+        <v>35.45645462989268</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>23.66817186163493</v>
+        <v>24.24348894310424</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>30.3463663606105</v>
+        <v>28.4358079650784</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>36.27518156613395</v>
+        <v>35.26290520816251</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>28.79386306831513</v>
+        <v>27.15416974006816</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>25.36324575400198</v>
+        <v>26.06443397584498</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>30.00376126896168</v>
+        <v>31.09383222710542</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>22.31881333160229</v>
+        <v>21.78171642768375</v>
       </c>
     </row>
     <row r="31">
@@ -1604,7 +1600,7 @@
         <v>0.8540433743642892</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.5301173136634604</v>
+        <v>0.5301173136634609</v>
       </c>
       <c r="I31" s="6" t="n">
         <v>0.4745540276124688</v>
@@ -1624,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5017388833134014</v>
+        <v>-0.4872885775108453</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.561394488054455</v>
+        <v>-0.5023602292918417</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5538070370878867</v>
+        <v>-0.5432618687447049</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1425892759051965</v>
+        <v>-0.07484265351507409</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1184773943942677</v>
+        <v>-0.09478526262058147</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.2109117212037506</v>
+        <v>-0.2275257617205516</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.0988274437298043</v>
+        <v>-0.1240199585756671</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.08517273405798857</v>
+        <v>-0.04056894112521903</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>-0.172498010169148</v>
+        <v>-0.1935042922592234</v>
       </c>
     </row>
     <row r="33">
@@ -1659,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.406101568847804</v>
+        <v>3.307362295220455</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.59252232817942</v>
+        <v>2.817414409998194</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.835923076650744</v>
+        <v>1.962111814239338</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>2.726518001234618</v>
+        <v>2.479523314839247</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>2.699908482597704</v>
+        <v>2.636619013487276</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.519985822614308</v>
+        <v>2.436668053365671</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.601122856632286</v>
+        <v>1.793135142628346</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.988668783157934</v>
+        <v>2.050556171544753</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.441813025144308</v>
+        <v>1.492495672609514</v>
       </c>
     </row>
     <row r="34">
@@ -1713,7 +1709,7 @@
         <v>-2.63995711019232</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>0.08664141500155098</v>
+        <v>0.08664141500155376</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>0.336027435096764</v>
@@ -1722,7 +1718,7 @@
         <v>-3.813629128746429</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>-0.9820485105632409</v>
+        <v>-0.9820485105632382</v>
       </c>
     </row>
     <row r="35">
@@ -1733,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-52.82034185597252</v>
+        <v>-52.44963489824644</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-87.39911969834166</v>
+        <v>-87.9942334594086</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-89.37274827390377</v>
+        <v>-88.0505764333402</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-14.31058200095057</v>
+        <v>-13.90133682810848</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-16.17012482929598</v>
+        <v>-16.11022450224529</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-14.71422407643566</v>
+        <v>-13.94181055701073</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>-12.76425363244318</v>
+        <v>-12.18156319564807</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-16.78502842970968</v>
+        <v>-18.59300221351938</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-14.12218171783378</v>
+        <v>-13.8789838196687</v>
       </c>
     </row>
     <row r="36">
@@ -1768,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>63.77937564759294</v>
+        <v>63.60254898548281</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>24.6701369960043</v>
+        <v>24.43847033070233</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>41.12104775358193</v>
+        <v>33.55597680824022</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>13.91274009551242</v>
+        <v>12.16547559139194</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>12.45068157081831</v>
+        <v>12.91642666925801</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>22.34373395739587</v>
+        <v>23.08318756189979</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>13.26089888035775</v>
+        <v>12.90625393376607</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>9.935696723863117</v>
+        <v>10.14966230136178</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>18.30914853407976</v>
+        <v>18.3377250689703</v>
       </c>
     </row>
     <row r="37">
@@ -1809,7 +1805,7 @@
         <v>-0.5054397126592465</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>-0.4994924047131035</v>
+        <v>-0.4994924047131036</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>-0.03798415362931376</v>
@@ -1818,7 +1814,7 @@
         <v>-0.1075760326240892</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.003530564815170464</v>
+        <v>0.003530564815170577</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.01369688401721379</v>
@@ -1827,7 +1823,7 @@
         <v>-0.1554481283531689</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>-0.04002948314202037</v>
+        <v>-0.04002948314202025</v>
       </c>
     </row>
     <row r="38">
@@ -1841,22 +1837,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>-0.4544582163073569</v>
+        <v>-0.4720769267538119</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5431015517068937</v>
+        <v>-0.5482185097015305</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.5242483695306921</v>
+        <v>-0.499981867858095</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>-0.4145313349292237</v>
+        <v>-0.4069920057314926</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.5644861283139841</v>
+        <v>-0.5956545791605067</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.5158700682158668</v>
+        <v>-0.4954402910897091</v>
       </c>
     </row>
     <row r="39">
@@ -1870,22 +1866,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.8226386258051559</v>
+        <v>0.6642318512544432</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7364868846076995</v>
+        <v>0.7055801991814812</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.276392765944226</v>
+        <v>1.362033061199747</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7021287254649241</v>
+        <v>0.6917041150691988</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.6261506697621728</v>
+        <v>0.526716691630551</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>1.115476288325325</v>
+        <v>1.108115934867482</v>
       </c>
     </row>
     <row r="40">
@@ -1906,7 +1902,7 @@
         <v>7.453112308527388</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>7.125241530836924</v>
+        <v>7.125241530836912</v>
       </c>
       <c r="F40" s="5" t="n">
         <v>4.554631307783405</v>
@@ -1915,7 +1911,7 @@
         <v>4.160720771464726</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>2.946057839017202</v>
+        <v>2.946057839017205</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>4.447294110524197</v>
@@ -1924,7 +1920,7 @@
         <v>5.554336468384907</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>5.547668793953492</v>
+        <v>5.547668793953497</v>
       </c>
     </row>
     <row r="41">
@@ -1935,31 +1931,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-5.880652759906957</v>
+        <v>-7.194075410690101</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-3.467336721336695</v>
+        <v>-2.809655200226703</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-2.813754173476673</v>
+        <v>-2.554419415974365</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-2.913039040788574</v>
+        <v>-2.977543346165473</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-2.761665725750266</v>
+        <v>-2.600028479523741</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-3.793037415503495</v>
+        <v>-3.820392757412182</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>-0.9624353887125092</v>
+        <v>-1.157929475301877</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.5961020339376671</v>
+        <v>-0.2761157329002042</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>-0.2520956225142698</v>
+        <v>-0.183213593022623</v>
       </c>
     </row>
     <row r="42">
@@ -1970,31 +1966,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>13.62579586857637</v>
+        <v>13.64477794709085</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>18.31903139319286</v>
+        <v>18.85680690457307</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>17.20694868735638</v>
+        <v>17.27552399421994</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>11.11072657814405</v>
+        <v>11.34302398252276</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>12.13913561957914</v>
+        <v>11.52335621393874</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>9.545063355991052</v>
+        <v>10.51600172481855</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>10.34165073750421</v>
+        <v>9.791230827852377</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>11.97075156888943</v>
+        <v>11.76053322916009</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>11.29759841979176</v>
+        <v>11.21124730987442</v>
       </c>
     </row>
     <row r="43">
@@ -2011,7 +2007,7 @@
         <v>0.2839853726974957</v>
       </c>
       <c r="E43" s="6" t="n">
-        <v>0.2714925373362852</v>
+        <v>0.2714925373362848</v>
       </c>
       <c r="F43" s="6" t="n">
         <v>0.2255304274179908</v>
@@ -2020,7 +2016,7 @@
         <v>0.2060252675890086</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1458791368021898</v>
+        <v>0.1458791368021899</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.1992957409761821</v>
@@ -2029,7 +2025,7 @@
         <v>0.2489054185731208</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2486066213531996</v>
+        <v>0.2486066213531998</v>
       </c>
     </row>
     <row r="44">
@@ -2040,31 +2036,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1905613975102942</v>
+        <v>-0.2099359051610452</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.09753916744173521</v>
+        <v>-0.09047452642928736</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.08642716002511813</v>
+        <v>-0.09273823464169599</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1267068345138867</v>
+        <v>-0.1212999715982438</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.1200202004725225</v>
+        <v>-0.1160266358785764</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.1677043164969926</v>
+        <v>-0.1610218962613151</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>-0.04044220908306354</v>
+        <v>-0.0468988346306665</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.03190832015305754</v>
+        <v>-0.01099213933046863</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>-0.004055382366487913</v>
+        <v>-0.007605256523384204</v>
       </c>
     </row>
     <row r="45">
@@ -2075,31 +2071,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.6480481510166975</v>
+        <v>0.6661969642765547</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.9046291238919448</v>
+        <v>0.9485104577397943</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8100236282493286</v>
+        <v>0.8831935731815932</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6807444955191062</v>
+        <v>0.6876702103135154</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.7519315696089859</v>
+        <v>0.7090446874794741</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.5833703671359396</v>
+        <v>0.6244911459623823</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5572820651895751</v>
+        <v>0.5095791262770144</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.6366073441718187</v>
+        <v>0.6143610789352133</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5914523211152567</v>
+        <v>0.5935560902861249</v>
       </c>
     </row>
     <row r="46">
